--- a/reports/raw-views/assets/tables/micro_multi_all_lemma.xlsx
+++ b/reports/raw-views/assets/tables/micro_multi_all_lemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,4752 +471,3982 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1010101</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1070101</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4187825918197632</v>
+        <v>0.2329328209161758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1643010377883911</v>
+        <v>0.3044913113117218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1643010377883911</v>
+        <v>0.3706589937210083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1221992820501327</v>
+        <v>0.1339029222726822</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1221992820501327</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.1292502582073211</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4428021013736725</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1010102</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1070102</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3511348366737366</v>
+        <v>0.293567806482315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.262466698884964</v>
+        <v>0.4077403843402862</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2624667882919311</v>
+        <v>0.2746087610721588</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0812377631664276</v>
+        <v>0.1453968733549118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0812377631664276</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>0.1173158586025238</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.409854531288147</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1020104</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1070103</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1929039061069488</v>
+        <v>0.2214456349611282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1080626100301742</v>
+        <v>0.4428656101226806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1080626249313354</v>
+        <v>0.2487019449472427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1106453090906143</v>
+        <v>0.2128163427114486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1106453388929367</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.1538293063640594</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5206983685493469</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1020107</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1070105</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2596543431282043</v>
+        <v>0.1782284826040268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.112625166773796</v>
+        <v>0.3947573006153106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1126251742243766</v>
+        <v>0.2518932521343231</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0777145028114318</v>
+        <v>0.1925457119941711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0777145102620124</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>0.1409067064523697</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.494228720664978</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1030101</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1070106</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1106129884719848</v>
+        <v>0.3411614298820495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1119968220591545</v>
+        <v>0.4741658866405487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1119968220591545</v>
+        <v>0.5639067888259888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08684086799621581</v>
+        <v>0.2665787041187286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0868408530950546</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>0.3130271136760711</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4923616051673889</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1030104</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1070107</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1847226619720459</v>
+        <v>0.2069693803787231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1579524278640747</v>
+        <v>0.4444715082645416</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1579524129629135</v>
+        <v>0.3571349680423736</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1187670677900314</v>
+        <v>0.1454562991857528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.118767075240612</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.1241659820079803</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4234423637390136</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1030105</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1070109</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3398334383964538</v>
+        <v>0.2333104908466339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1492396593093872</v>
+        <v>0.4411681592464447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1492396742105484</v>
+        <v>0.4327715635299682</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1758740097284317</v>
+        <v>0.2995263040065765</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1758740246295929</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0.237546682357788</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3827364444732666</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1040104</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1070110</v>
       </c>
       <c r="B9" t="n">
-        <v>0.397174596786499</v>
+        <v>0.212700143456459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1951698213815689</v>
+        <v>0.2757261395454407</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1951698362827301</v>
+        <v>0.2131237834692001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1266654133796692</v>
+        <v>0.2051810026168823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1266654133796692</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>0.1650185734033584</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.593467652797699</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1040106</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1070111</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3556466996669769</v>
+        <v>0.1686205118894577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1392005681991577</v>
+        <v>0.3403451442718506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1392005831003189</v>
+        <v>0.3572443723678589</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1250053793191909</v>
+        <v>0.1645003259181976</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1250053644180297</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.1617231667041778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6220579743385315</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1050101</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1070112</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4555616974830627</v>
+        <v>0.1549579054117202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1982795000076294</v>
+        <v>0.2205936908721923</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1982794851064682</v>
+        <v>0.2648378610610962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1041168719530105</v>
+        <v>0.1646896749734878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1041168645024299</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.1569084823131561</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7127987146377563</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1050102</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1070113</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2799287140369415</v>
+        <v>0.3355311453342438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2369935810565948</v>
+        <v>0.4437230825424194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2369936555624008</v>
+        <v>0.3082515299320221</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0799578204751014</v>
+        <v>0.188520535826683</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0799578204751014</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0.1973721385002136</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3977510631084442</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1050104</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1070114</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3619095385074615</v>
+        <v>0.2278728783130645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2259718179702758</v>
+        <v>0.4156439304351806</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225971832871437</v>
+        <v>0.3978983163833618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0973595082759857</v>
+        <v>0.3054750561714172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0973595082759857</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0.2063884735107422</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4027806222438812</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1050105</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1070115</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2418720573186874</v>
+        <v>0.3559643030166626</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2138674408197403</v>
+        <v>0.4056032299995422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2138674855232238</v>
+        <v>0.3984402120113373</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0789572596549987</v>
+        <v>0.2474828213453292</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0789572596549987</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>0.2175958454608917</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.44835364818573</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1060101</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1070116</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3339221775531769</v>
+        <v>0.1264575123786926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1886706352233886</v>
+        <v>0.1670770645141601</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1886706352233886</v>
+        <v>0.1670770943164825</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08518416434526439</v>
+        <v>0.1447236388921737</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0851841866970062</v>
+        <v>0.1447236388921737</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1060104</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1080101</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3485340476036072</v>
+        <v>0.2043298780918121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1347614377737045</v>
+        <v>0.3117668628692627</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1347614377737045</v>
+        <v>0.2078742384910583</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0933602973818779</v>
+        <v>0.2155094593763351</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0933602973818779</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>0.1382135301828384</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4750902354717254</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1060105</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1080102</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1332220435142517</v>
+        <v>0.191736415028572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2733564674854278</v>
+        <v>0.3542379140853882</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2733565270900726</v>
+        <v>0.336340844631195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0821214914321899</v>
+        <v>0.1934654712677002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0821215212345123</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.1641877889633178</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4815837144851684</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1060106a</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1080103</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1127276867628097</v>
+        <v>0.3008521795272827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1994875967502594</v>
+        <v>0.3432328999042511</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1994876265525818</v>
+        <v>0.2857235968112945</v>
       </c>
       <c r="E18" t="n">
-        <v>0.034721378237009</v>
+        <v>0.1751121282577514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0347213856875896</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0.1626450717449188</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5461027026176453</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1060106b</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1080104</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3011148273944855</v>
+        <v>0.1276960670948028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1409207582473755</v>
+        <v>0.3554312884807586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1409207731485366</v>
+        <v>0.2792420387268066</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0829835832118988</v>
+        <v>0.15056873857975</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0829835832118988</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0.1360146403312683</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5172891020774841</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1070101</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1080105</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2329328209161758</v>
+        <v>0.3555404245853424</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3044913113117218</v>
+        <v>0.3284676969051361</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3706589937210083</v>
+        <v>0.2763002812862396</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1339029222726822</v>
+        <v>0.1951004713773727</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1292502582073211</v>
+        <v>0.1276114135980606</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4428021013736725</v>
+        <v>0.529547393321991</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1070102</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1080106</v>
       </c>
       <c r="B21" t="n">
-        <v>0.293567806482315</v>
+        <v>0.2512020170688629</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4077403843402862</v>
+        <v>0.3669347465038299</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2746087610721588</v>
+        <v>0.3328467905521393</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1453968733549118</v>
+        <v>0.1864115744829177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1173158586025238</v>
+        <v>0.1577998399734497</v>
       </c>
       <c r="G21" t="n">
-        <v>0.409854531288147</v>
+        <v>0.538888692855835</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1070103</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1080107</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2214456349611282</v>
+        <v>0.2183086574077606</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4428656101226806</v>
+        <v>0.3259062170982361</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2487019449472427</v>
+        <v>0.3552436828613281</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2128163427114486</v>
+        <v>0.1749439537525177</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1538293063640594</v>
+        <v>0.1719418615102768</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5206983685493469</v>
+        <v>0.4522621929645538</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1070105</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1080108</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1782284826040268</v>
+        <v>0.252563863992691</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3947573006153106</v>
+        <v>0.352819561958313</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2518932521343231</v>
+        <v>0.392629861831665</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1925457119941711</v>
+        <v>0.2251103520393371</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1409067064523697</v>
+        <v>0.2277799397706985</v>
       </c>
       <c r="G23" t="n">
-        <v>0.494228720664978</v>
+        <v>0.4471408128738403</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1070106</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1080109</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3411614298820495</v>
+        <v>0.1684065908193588</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4741658866405487</v>
+        <v>0.3506026268005371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5639067888259888</v>
+        <v>0.2504435181617737</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2665787041187286</v>
+        <v>0.1937446147203445</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3130271136760711</v>
+        <v>0.1492264568805694</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4923616051673889</v>
+        <v>0.5939578413963318</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1070107</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1080110</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2069693803787231</v>
+        <v>0.2057980597019195</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4444715082645416</v>
+        <v>0.3801169097423553</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3571349680423736</v>
+        <v>0.2997167706489563</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1454562991857528</v>
+        <v>0.1761368513107299</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1241659820079803</v>
+        <v>0.1280336380004882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4234423637390136</v>
+        <v>0.6570304036140442</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1070109</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1080111</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2333104908466339</v>
+        <v>0.2934228479862213</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4411681592464447</v>
+        <v>0.4339059293270111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4327715635299682</v>
+        <v>0.3517996668815613</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2995263040065765</v>
+        <v>0.2351621985435485</v>
       </c>
       <c r="F26" t="n">
-        <v>0.237546682357788</v>
+        <v>0.1420843601226806</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3827364444732666</v>
+        <v>0.5011966228485107</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1070110</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1080112</v>
       </c>
       <c r="B27" t="n">
-        <v>0.212700143456459</v>
+        <v>0.2654892206192016</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2757261395454407</v>
+        <v>0.3598987758159637</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2131237834692001</v>
+        <v>0.3283630311489105</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2051810026168823</v>
+        <v>0.2066150158643722</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1650185734033584</v>
+        <v>0.1940012574195861</v>
       </c>
       <c r="G27" t="n">
-        <v>0.593467652797699</v>
+        <v>0.5260827541351318</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1070111</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1080113</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1686205118894577</v>
+        <v>0.3365707099437713</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3403451442718506</v>
+        <v>0.3925097584724426</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3572443723678589</v>
+        <v>0.4323004186153412</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1645003259181976</v>
+        <v>0.2365907281637191</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1617231667041778</v>
+        <v>0.2316569536924362</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6220579743385315</v>
+        <v>0.4130730032920837</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1070112</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1080114</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1549579054117202</v>
+        <v>0.2874866724014282</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2205936908721923</v>
+        <v>0.4131115078926086</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2648378610610962</v>
+        <v>0.2685332894325256</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1646896749734878</v>
+        <v>0.1742859929800033</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1569084823131561</v>
+        <v>0.138345867395401</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7127987146377563</v>
+        <v>0.504252016544342</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1070113</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1080201</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3355311453342438</v>
+        <v>0.4040909707546234</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4437230825424194</v>
+        <v>0.3387176990509033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3082515299320221</v>
+        <v>0.2992106974124908</v>
       </c>
       <c r="E30" t="n">
-        <v>0.188520535826683</v>
+        <v>0.1690642088651657</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1973721385002136</v>
+        <v>0.1447843611240387</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3977510631084442</v>
+        <v>0.5356286764144897</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1070114</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1080202</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2278728783130645</v>
+        <v>0.21085025370121</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4156439304351806</v>
+        <v>0.2448937445878982</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3978983163833618</v>
+        <v>0.2489096522331237</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3054750561714172</v>
+        <v>0.2518503665924072</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2063884735107422</v>
+        <v>0.2169402837753296</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4027806222438812</v>
+        <v>0.5180714130401611</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1070115</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1080203</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3559643030166626</v>
+        <v>0.5529592633247375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4056032299995422</v>
+        <v>0.2244375646114349</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3984402120113373</v>
+        <v>0.1975277662277221</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2474828213453292</v>
+        <v>0.189535304903984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2175958454608917</v>
+        <v>0.1625248789787292</v>
       </c>
       <c r="G32" t="n">
-        <v>0.44835364818573</v>
+        <v>0.6485164165496826</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1070116</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1080301</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1264575123786926</v>
+        <v>0.2150311768054962</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1670770645141601</v>
+        <v>0.4088504910469055</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1670770943164825</v>
+        <v>0.2620116174221039</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1447236388921737</v>
+        <v>0.1291922330856323</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1447236388921737</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>0.1502037346363067</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6062873005867004</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1080101</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1080302</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2043298780918121</v>
+        <v>0.290216863155365</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3117668628692627</v>
+        <v>0.4158050715923309</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2078742384910583</v>
+        <v>0.4577541351318359</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2155094593763351</v>
+        <v>0.2136556655168533</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1382135301828384</v>
+        <v>0.2441831231117248</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4750902354717254</v>
+        <v>0.5546850562095642</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1080102</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1080303</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191736415028572</v>
+        <v>0.3820887506008148</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3542379140853882</v>
+        <v>0.434294581413269</v>
       </c>
       <c r="D35" t="n">
-        <v>0.336340844631195</v>
+        <v>0.3847643136978149</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1934654712677002</v>
+        <v>0.2493826150894165</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1641877889633178</v>
+        <v>0.215350866317749</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4815837144851684</v>
+        <v>0.5338442921638489</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1080103</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1080304</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3008521795272827</v>
+        <v>0.2910798788070678</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3432328999042511</v>
+        <v>0.3325182497501373</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2857235968112945</v>
+        <v>0.3023790121078491</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1751121282577514</v>
+        <v>0.2015791535377502</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1626450717449188</v>
+        <v>0.1808507740497589</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5461027026176453</v>
+        <v>0.5613345503807068</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1080104</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1080305</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1276960670948028</v>
+        <v>0.3766374588012695</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3554312884807586</v>
+        <v>0.350508451461792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2792420387268066</v>
+        <v>0.293781965970993</v>
       </c>
       <c r="E37" t="n">
-        <v>0.15056873857975</v>
+        <v>0.1912173777818679</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1360146403312683</v>
+        <v>0.1668575406074524</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5172891020774841</v>
+        <v>0.7408211231231689</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1080105</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1080306</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3555404245853424</v>
+        <v>0.3510790765285492</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3284676969051361</v>
+        <v>0.4578287601470947</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2763002812862396</v>
+        <v>0.4440982341766357</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1951004713773727</v>
+        <v>0.2088009268045425</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1276114135980606</v>
+        <v>0.2019897103309631</v>
       </c>
       <c r="G38" t="n">
-        <v>0.529547393321991</v>
+        <v>0.5869060158729553</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1080106</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1080307</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2512020170688629</v>
+        <v>0.3100746273994446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3669347465038299</v>
+        <v>0.3471776247024536</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3328467905521393</v>
+        <v>0.2893394231796264</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1864115744829177</v>
+        <v>0.2431030869483947</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1577998399734497</v>
+        <v>0.1780696511268615</v>
       </c>
       <c r="G39" t="n">
-        <v>0.538888692855835</v>
+        <v>0.5208424925804138</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1080107</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1080308</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2183086574077606</v>
+        <v>0.1110468134284019</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3259062170982361</v>
+        <v>0.2975645959377289</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3552436828613281</v>
+        <v>0.2716403901576996</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1749439537525177</v>
+        <v>0.101704865694046</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1719418615102768</v>
+        <v>0.1007793992757797</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4522621929645538</v>
+        <v>0.6909099221229553</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1080108</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1080401</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252563863992691</v>
+        <v>0.1872852593660354</v>
       </c>
       <c r="C41" t="n">
-        <v>0.352819561958313</v>
+        <v>0.3341248035430908</v>
       </c>
       <c r="D41" t="n">
-        <v>0.392629861831665</v>
+        <v>0.2522693276405334</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2251103520393371</v>
+        <v>0.152376040816307</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2277799397706985</v>
+        <v>0.116410955786705</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4471408128738403</v>
+        <v>0.6140380501747131</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>1080109</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>1080402</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1684065908193588</v>
+        <v>0.2820799946784973</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3506026268005371</v>
+        <v>0.3585623502731323</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2504435181617737</v>
+        <v>0.3239887058734894</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1937446147203445</v>
+        <v>0.0712746158242225</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1492264568805694</v>
+        <v>0.0775947123765945</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5939578413963318</v>
+        <v>0.6661468744277954</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1080110</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>1080403</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2057980597019195</v>
+        <v>0.1746541410684585</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3801169097423553</v>
+        <v>0.3929508626461029</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2997167706489563</v>
+        <v>0.3819670677185058</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1761368513107299</v>
+        <v>0.1929887682199478</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1280336380004882</v>
+        <v>0.1655454486608505</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6570304036140442</v>
+        <v>0.6402130722999573</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>1080111</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>1080404</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2934228479862213</v>
+        <v>0.2157702445983886</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4339059293270111</v>
+        <v>0.3885066509246826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3517996668815613</v>
+        <v>0.3894073367118835</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2351621985435485</v>
+        <v>0.1393229365348816</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1420843601226806</v>
+        <v>0.1660280227661132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5011966228485107</v>
+        <v>0.5127186179161072</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>1080112</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>1080405</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2654892206192016</v>
+        <v>0.2650001049041748</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3598987758159637</v>
+        <v>0.4445742070674896</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3283630311489105</v>
+        <v>0.2677519619464874</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2066150158643722</v>
+        <v>0.1547030359506607</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1940012574195861</v>
+        <v>0.0420004725456237</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5260827541351318</v>
+        <v>0.624674379825592</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1080113</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>1080406</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3365707099437713</v>
+        <v>0.2344329357147216</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3925097584724426</v>
+        <v>0.3469567894935608</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4323004186153412</v>
+        <v>0.4162865877151489</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2365907281637191</v>
+        <v>0.0974384099245071</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2316569536924362</v>
+        <v>0.1371121704578399</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4130730032920837</v>
+        <v>0.7022475004196167</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1080114</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>1080407</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2874866724014282</v>
+        <v>0.2706528902053833</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4131115078926086</v>
+        <v>0.3805843889713287</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2685332894325256</v>
+        <v>0.3505842983722687</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1742859929800033</v>
+        <v>0.1323920041322708</v>
       </c>
       <c r="F47" t="n">
-        <v>0.138345867395401</v>
+        <v>0.1233682334423065</v>
       </c>
       <c r="G47" t="n">
-        <v>0.504252016544342</v>
+        <v>0.6836607456207275</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>1080201</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>1080408</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4040909707546234</v>
+        <v>0.2289543449878692</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3387176990509033</v>
+        <v>0.3471631407737732</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2992106974124908</v>
+        <v>0.3372368812561035</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1690642088651657</v>
+        <v>0.151053786277771</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1447843611240387</v>
+        <v>0.1024304628372192</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5356286764144897</v>
+        <v>0.527874767780304</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>1080202</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>1080409</v>
       </c>
       <c r="B49" t="n">
-        <v>0.21085025370121</v>
+        <v>0.2766176462173462</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2448937445878982</v>
+        <v>0.305467426776886</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2489096522331237</v>
+        <v>0.2056290507316589</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2518503665924072</v>
+        <v>0.1381847709417343</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2169402837753296</v>
+        <v>0.1119396314024925</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5180714130401611</v>
+        <v>0.7315560579299927</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>1080203</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>1080410</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5529592633247375</v>
+        <v>0.2280202805995941</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2244375646114349</v>
+        <v>0.4700071811676025</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1975277662277221</v>
+        <v>0.3776747286319732</v>
       </c>
       <c r="E50" t="n">
-        <v>0.189535304903984</v>
+        <v>0.2173851132392883</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1625248789787292</v>
+        <v>0.1993025094270706</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6485164165496826</v>
+        <v>0.3291624784469604</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>1080301</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>1080411</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2150311768054962</v>
+        <v>0.2139429003000259</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4088504910469055</v>
+        <v>0.2728245258331299</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2620116174221039</v>
+        <v>0.291573703289032</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1291922330856323</v>
+        <v>0.906124472618103</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1502037346363067</v>
+        <v>0.7967767715454102</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6062873005867004</v>
+        <v>0.7402804493904114</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>1080302</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>1080412</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290216863155365</v>
+        <v>0.3605111241340637</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4158050715923309</v>
+        <v>0.2932543456554413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4577541351318359</v>
+        <v>0.3297658264636993</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2136556655168533</v>
+        <v>0.163700446486473</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2441831231117248</v>
+        <v>0.1957511007785797</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5546850562095642</v>
+        <v>0.6228771805763245</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>1080303</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>1080413</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3820887506008148</v>
+        <v>0.1846431493759155</v>
       </c>
       <c r="C53" t="n">
-        <v>0.434294581413269</v>
+        <v>0.3325878083705902</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3847643136978149</v>
+        <v>0.2820881605148315</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2493826150894165</v>
+        <v>0.119336798787117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.215350866317749</v>
+        <v>0.1110883951187133</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5338442921638489</v>
+        <v>0.5415699481964111</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>1080304</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>1080414</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2910798788070678</v>
+        <v>0.19182650744915</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3325182497501373</v>
+        <v>0.3555381298065185</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3023790121078491</v>
+        <v>0.2587721943855285</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2015791535377502</v>
+        <v>0.1203024312853813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1808507740497589</v>
+        <v>0.1185131594538688</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5613345503807068</v>
+        <v>0.6504967212677002</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>1080305</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>1080415</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3766374588012695</v>
+        <v>0.2819169759750366</v>
       </c>
       <c r="C55" t="n">
-        <v>0.350508451461792</v>
+        <v>0.3214304447174072</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293781965970993</v>
+        <v>0.3938949108123779</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1912173777818679</v>
+        <v>0.1349467784166336</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1668575406074524</v>
+        <v>0.1549195945262909</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7408211231231689</v>
+        <v>0.5080448985099792</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>1080306</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>1080416</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3510790765285492</v>
+        <v>0.2373979091644287</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4578287601470947</v>
+        <v>0.3457382023334503</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4440982341766357</v>
+        <v>0.2197157591581344</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2088009268045425</v>
+        <v>0.0742933899164199</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2019897103309631</v>
+        <v>0.055506445467472</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5869060158729553</v>
+        <v>0.6552889347076416</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>1080307</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>1080417</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3100746273994446</v>
+        <v>0.2768905162811279</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3471776247024536</v>
+        <v>0.398167073726654</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2893394231796264</v>
+        <v>0.4032909572124481</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2431030869483947</v>
+        <v>0.1776727885007858</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1780696511268615</v>
+        <v>0.1235641911625862</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5208424925804138</v>
+        <v>0.5143377780914307</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1080308</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>1080418</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1110468134284019</v>
+        <v>0.2115413695573806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2975645959377289</v>
+        <v>0.3390299677848816</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2716403901576996</v>
+        <v>0.2625467181205749</v>
       </c>
       <c r="E58" t="n">
-        <v>0.101704865694046</v>
+        <v>0.1120378226041793</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1007793992757797</v>
+        <v>0.0928884893655777</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6909099221229553</v>
+        <v>0.5201852321624756</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>1080401</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>1080419</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1872852593660354</v>
+        <v>0.1241815090179443</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3341248035430908</v>
+        <v>0.3847141861915588</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2522693276405334</v>
+        <v>0.3386726379394531</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152376040816307</v>
+        <v>0.1454905271530151</v>
       </c>
       <c r="F59" t="n">
-        <v>0.116410955786705</v>
+        <v>0.1244601532816886</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6140380501747131</v>
+        <v>0.4904303550720215</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>1080402</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>1080420</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2820799946784973</v>
+        <v>0.1153872907161712</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3585623502731323</v>
+        <v>0.3083970248699188</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3239887058734894</v>
+        <v>0.2893161177635193</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0712746158242225</v>
+        <v>0.1167462915182113</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0775947123765945</v>
+        <v>0.1214374676346778</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6661468744277954</v>
+        <v>0.5709713697433472</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1080403</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>1080421</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1746541410684585</v>
+        <v>0.1345429271459579</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3929508626461029</v>
+        <v>0.2079317420721054</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3819670677185058</v>
+        <v>0.2079317718744278</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1929887682199478</v>
+        <v>0.0748994871973991</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1655454486608505</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.6402130722999573</v>
-      </c>
+        <v>0.07489950209856031</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>1080404</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>1080422</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2157702445983886</v>
+        <v>0.3760002255439758</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3885066509246826</v>
+        <v>0.3013188540935516</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3894073367118835</v>
+        <v>0.3309368193149566</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1393229365348816</v>
+        <v>0.1388613730669021</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1660280227661132</v>
+        <v>0.1989557147026062</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5127186179161072</v>
+        <v>0.6169857978820801</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>1080405</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>1080423</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2650001049041748</v>
+        <v>0.1338824927806854</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4445742070674896</v>
+        <v>0.1857813894748687</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2677519619464874</v>
+        <v>0.1857814341783523</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1547030359506607</v>
+        <v>0.0889642536640167</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0420004725456237</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.624674379825592</v>
-      </c>
+        <v>0.0889642536640167</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>1080406</t>
-        </is>
+      <c r="A64" s="1" t="n">
+        <v>1090101</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2344329357147216</v>
+        <v>0.2070325165987014</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3469567894935608</v>
+        <v>0.317532479763031</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4162865877151489</v>
+        <v>0.3072005212306976</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0974384099245071</v>
+        <v>0.08642244338989249</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1371121704578399</v>
+        <v>0.0964095294475555</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7022475004196167</v>
+        <v>0.6069112420082092</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>1080407</t>
-        </is>
+      <c r="A65" s="1" t="n">
+        <v>1090102</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2706528902053833</v>
+        <v>0.2289671599864959</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3805843889713287</v>
+        <v>0.2530456185340881</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3505842983722687</v>
+        <v>0.2477332800626754</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1323920041322708</v>
+        <v>0.0954836532473564</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1233682334423065</v>
+        <v>0.0885167121887207</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6836607456207275</v>
+        <v>0.6957943439483643</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>1080408</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>1090103</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2289543449878692</v>
+        <v>0.1413852572441101</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3471631407737732</v>
+        <v>0.3341087698936462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3372368812561035</v>
+        <v>0.4014747738838196</v>
       </c>
       <c r="E66" t="n">
-        <v>0.151053786277771</v>
+        <v>0.0448030233383178</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1024304628372192</v>
+        <v>0.0683300793170929</v>
       </c>
       <c r="G66" t="n">
-        <v>0.527874767780304</v>
+        <v>0.4660683274269104</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>1080409</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>1090104</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2766176462173462</v>
+        <v>0.2419749200344085</v>
       </c>
       <c r="C67" t="n">
-        <v>0.305467426776886</v>
+        <v>0.3610665202140808</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2056290507316589</v>
+        <v>0.3155797719955444</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1381847709417343</v>
+        <v>0.1182106360793113</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1119396314024925</v>
+        <v>0.1145118623971939</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7315560579299927</v>
+        <v>0.5886597633361816</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>1080410</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>1090105</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2280202805995941</v>
+        <v>0.1122373715043068</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4700071811676025</v>
+        <v>0.2872113287448883</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3776747286319732</v>
+        <v>0.2655815780162811</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2173851132392883</v>
+        <v>0.0640654265880584</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1993025094270706</v>
+        <v>0.0920888483524322</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3291624784469604</v>
+        <v>0.5744350552558899</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>1080411</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>1090106</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2139429003000259</v>
+        <v>0.1318017542362213</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2728245258331299</v>
+        <v>0.277442991733551</v>
       </c>
       <c r="D69" t="n">
-        <v>0.291573703289032</v>
+        <v>0.2350045889616012</v>
       </c>
       <c r="E69" t="n">
-        <v>0.906124472618103</v>
+        <v>0.128397986292839</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7967767715454102</v>
+        <v>0.1027115285396575</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7402804493904114</v>
+        <v>0.6192812919616699</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>1080412</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>1090107</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3605111241340637</v>
+        <v>0.2173534035682678</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2932543456554413</v>
+        <v>0.3436203598976135</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3297658264636993</v>
+        <v>0.2809558808803558</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163700446486473</v>
+        <v>0.1512440145015716</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1957511007785797</v>
+        <v>0.0870077237486839</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6228771805763245</v>
+        <v>0.5900212526321411</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>1080413</t>
-        </is>
+      <c r="A71" s="1" t="n">
+        <v>1090109</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1846431493759155</v>
+        <v>0.2264356613159179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3325878083705902</v>
+        <v>0.3158208429813385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2820881605148315</v>
+        <v>0.2913521826267242</v>
       </c>
       <c r="E71" t="n">
-        <v>0.119336798787117</v>
+        <v>0.0793425291776657</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1110883951187133</v>
+        <v>0.0900401547551155</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5415699481964111</v>
+        <v>0.6414546966552734</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1080414</t>
-        </is>
+      <c r="A72" s="1" t="n">
+        <v>1090110</v>
       </c>
       <c r="B72" t="n">
-        <v>0.19182650744915</v>
+        <v>0.111824631690979</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3555381298065185</v>
+        <v>0.3040804266929626</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2587721943855285</v>
+        <v>0.3723105788230896</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1203024312853813</v>
+        <v>0.0826364830136299</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1185131594538688</v>
+        <v>0.09330093860626219</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6504967212677002</v>
+        <v>0.620022714138031</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>1080415</t>
-        </is>
+      <c r="A73" s="1" t="n">
+        <v>1090111</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2819169759750366</v>
+        <v>0.2326763123273849</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3214304447174072</v>
+        <v>0.3538246154785156</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3938949108123779</v>
+        <v>0.2155754119157791</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1349467784166336</v>
+        <v>0.1162749454379081</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1549195945262909</v>
+        <v>0.0979197397828102</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5080448985099792</v>
+        <v>0.5605181455612183</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>1080416</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>1090112</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2373979091644287</v>
+        <v>0.315370500087738</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3457382023334503</v>
+        <v>0.3754769265651703</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2197157591581344</v>
+        <v>0.2698334455490112</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0742933899164199</v>
+        <v>0.1622451394796371</v>
       </c>
       <c r="F74" t="n">
-        <v>0.055506445467472</v>
+        <v>0.1046027317643165</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6552889347076416</v>
+        <v>0.5188271999359131</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>1080417</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>1090113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2768905162811279</v>
+        <v>0.2373339980840683</v>
       </c>
       <c r="C75" t="n">
-        <v>0.398167073726654</v>
+        <v>0.350657194852829</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4032909572124481</v>
+        <v>0.2452184110879898</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1776727885007858</v>
+        <v>0.1405414342880249</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1235641911625862</v>
+        <v>0.07900667935609811</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5143377780914307</v>
+        <v>0.6024194359779358</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1080418</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>1090114</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2115413695573806</v>
+        <v>0.3459668159484863</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3390299677848816</v>
+        <v>0.2534739077091217</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2625467181205749</v>
+        <v>0.281133234500885</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1120378226041793</v>
+        <v>0.1832680702209472</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0928884893655777</v>
+        <v>0.1676896065473556</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5201852321624756</v>
+        <v>0.6623667478561401</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>1080419</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>1090115</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1241815090179443</v>
+        <v>0.4091843664646148</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3847141861915588</v>
+        <v>0.2756807208061218</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3386726379394531</v>
+        <v>0.1758075207471847</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1454905271530151</v>
+        <v>0.1870691031217575</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1244601532816886</v>
+        <v>0.1469797492027282</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4904303550720215</v>
+        <v>0.6551333665847778</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>1080420</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>1100101</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1153872907161712</v>
+        <v>0.2537142038345337</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3083970248699188</v>
+        <v>0.3080498874187469</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2893161177635193</v>
+        <v>0.2861984968185425</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1167462915182113</v>
+        <v>0.1408870369195938</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1214374676346778</v>
+        <v>0.08588641136884689</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5709713697433472</v>
+        <v>0.6399958729743958</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>1080421</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>1100102</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1345429271459579</v>
+        <v>0.357095330953598</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2079317420721054</v>
+        <v>0.2935499548912048</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2079317718744278</v>
+        <v>0.2861923575401306</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0748994871973991</v>
+        <v>0.1929101049900055</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07489950209856031</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>0.2155933082103729</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5795983076095581</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>1080422</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>1100103</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3760002255439758</v>
+        <v>0.2918316721916199</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3013188540935516</v>
+        <v>0.3651154637336731</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3309368193149566</v>
+        <v>0.2649740874767303</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1388613730669021</v>
+        <v>0.1357126384973526</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1989557147026062</v>
+        <v>0.0898164138197898</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6169857978820801</v>
+        <v>0.561539888381958</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>1080423</t>
-        </is>
+      <c r="A81" s="1" t="n">
+        <v>1100104</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1338824927806854</v>
+        <v>0.1641772985458374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1857813894748687</v>
+        <v>0.2660480439662933</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1857814341783523</v>
+        <v>0.2763956785202026</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0889642536640167</v>
+        <v>0.07535390555858611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0889642536640167</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+        <v>0.0927991569042205</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6141324043273926</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1090101</t>
-        </is>
+      <c r="A82" s="1" t="n">
+        <v>1100105</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2070325165987014</v>
+        <v>0.1484110355377197</v>
       </c>
       <c r="C82" t="n">
-        <v>0.317532479763031</v>
+        <v>0.3105127215385437</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3072005212306976</v>
+        <v>0.3703042864799499</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08642244338989249</v>
+        <v>0.0714967474341392</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0964095294475555</v>
+        <v>0.0624900721013546</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6069112420082092</v>
+        <v>0.6964750289916992</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>1090102</t>
-        </is>
+      <c r="A83" s="1" t="n">
+        <v>1100106</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2289671599864959</v>
+        <v>0.2511907517910003</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2530456185340881</v>
+        <v>0.2802066802978515</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2477332800626754</v>
+        <v>0.2695062756538391</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0954836532473564</v>
+        <v>0.07630801945924751</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0885167121887207</v>
+        <v>0.0829657837748527</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6957943439483643</v>
+        <v>0.6558271050453186</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>1090103</t>
-        </is>
+      <c r="A84" s="1" t="n">
+        <v>1100107</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1413852572441101</v>
+        <v>0.1857974827289581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3341087698936462</v>
+        <v>0.2893060743808746</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4014747738838196</v>
+        <v>0.1957881450653076</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0448030233383178</v>
+        <v>0.0292087960988283</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0683300793170929</v>
+        <v>0.0382388867437839</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4660683274269104</v>
+        <v>0.7056280970573425</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>1090104</t>
-        </is>
+      <c r="A85" s="1" t="n">
+        <v>1100108</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2419749200344085</v>
+        <v>0.1816067099571228</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3610665202140808</v>
+        <v>0.3272059857845306</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3155797719955444</v>
+        <v>0.2812284231185913</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1182106360793113</v>
+        <v>0.1177173852920532</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1145118623971939</v>
+        <v>0.0804441273212432</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5886597633361816</v>
+        <v>0.6576212048530579</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>1090105</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>1100109</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1122373715043068</v>
+        <v>0.3194500505924225</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2872113287448883</v>
+        <v>0.3473075032234192</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2655815780162811</v>
+        <v>0.3164716958999634</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0640654265880584</v>
+        <v>0.1420503407716751</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0920888483524322</v>
+        <v>0.1107307001948356</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5744350552558899</v>
+        <v>0.6150714755058289</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>1090106</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>1100110</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1318017542362213</v>
+        <v>0.2666159272193908</v>
       </c>
       <c r="C87" t="n">
-        <v>0.277442991733551</v>
+        <v>0.26480233669281</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2350045889616012</v>
+        <v>0.2570447623729706</v>
       </c>
       <c r="E87" t="n">
-        <v>0.128397986292839</v>
+        <v>0.113167680799961</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1027115285396575</v>
+        <v>0.1224057376384735</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6192812919616699</v>
+        <v>0.5989434123039246</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>1090107</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>1100111</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2173534035682678</v>
+        <v>0.1930237710475921</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3436203598976135</v>
+        <v>0.2779358923435211</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2809558808803558</v>
+        <v>0.2381595969200134</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1512440145015716</v>
+        <v>0.0705394074320793</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0870077237486839</v>
+        <v>0.09397966414690009</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5900212526321411</v>
+        <v>0.59248948097229</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>1090109</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>1100112</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2264356613159179</v>
+        <v>0.1678822487592697</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3158208429813385</v>
+        <v>0.3137027025222778</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2913521826267242</v>
+        <v>0.2619459331035614</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0793425291776657</v>
+        <v>0.06883767247200009</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0900401547551155</v>
+        <v>0.0521277710795402</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6414546966552734</v>
+        <v>0.7463307976722717</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>1090110</t>
-        </is>
+      <c r="A90" s="1" t="n">
+        <v>1100114</v>
       </c>
       <c r="B90" t="n">
-        <v>0.111824631690979</v>
+        <v>0.3483774662017822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3040804266929626</v>
+        <v>0.2922347486019134</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3723105788230896</v>
+        <v>0.177853912115097</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0826364830136299</v>
+        <v>0.1220798939466476</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09330093860626219</v>
+        <v>0.0507155805826187</v>
       </c>
       <c r="G90" t="n">
-        <v>0.620022714138031</v>
+        <v>0.6718562841415405</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>1090111</t>
-        </is>
+      <c r="A91" s="1" t="n">
+        <v>1100115</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2326763123273849</v>
+        <v>0.2001526951789856</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3538246154785156</v>
+        <v>0.3009440898895263</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2155754119157791</v>
+        <v>0.3156187534332275</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1162749454379081</v>
+        <v>0.7443186044692993</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0979197397828102</v>
+        <v>0.7021479606628418</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5605181455612183</v>
+        <v>0.569726288318634</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>1090112</t>
-        </is>
+      <c r="A92" s="1" t="n">
+        <v>1100116</v>
       </c>
       <c r="B92" t="n">
-        <v>0.315370500087738</v>
+        <v>0.3419871032238006</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3754769265651703</v>
+        <v>0.22635518014431</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2698334455490112</v>
+        <v>0.2620222270488739</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1622451394796371</v>
+        <v>0.1392759680747985</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1046027317643165</v>
+        <v>0.1608115881681442</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5188271999359131</v>
+        <v>0.8978708982467651</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>1090113</t>
-        </is>
+      <c r="A93" s="1" t="n">
+        <v>1100117</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2373339980840683</v>
+        <v>0.3169308602809906</v>
       </c>
       <c r="C93" t="n">
-        <v>0.350657194852829</v>
+        <v>0.2866957187652588</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2452184110879898</v>
+        <v>0.2407230287790298</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1405414342880249</v>
+        <v>0.1416287720203399</v>
       </c>
       <c r="F93" t="n">
-        <v>0.07900667935609811</v>
+        <v>0.1026457250118255</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6024194359779358</v>
+        <v>0.6581536531448364</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>1090114</t>
-        </is>
+      <c r="A94" s="1" t="n">
+        <v>1100118</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3459668159484863</v>
+        <v>0.2702464461326599</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2534739077091217</v>
+        <v>0.2772718667984009</v>
       </c>
       <c r="D94" t="n">
-        <v>0.281133234500885</v>
+        <v>0.240761861205101</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1832680702209472</v>
+        <v>0.1787264049053192</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1676896065473556</v>
+        <v>0.08128210157155991</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6623667478561401</v>
+        <v>0.7004129886627197</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>1090115</t>
-        </is>
+      <c r="A95" s="1" t="n">
+        <v>1100119</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4091843664646148</v>
+        <v>0.4535179734230041</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2756807208061218</v>
+        <v>0.3603740930557251</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1758075207471847</v>
+        <v>0.3502254784107208</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1870691031217575</v>
+        <v>0.1955382823944091</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1469797492027282</v>
+        <v>0.1901514083147049</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6551333665847778</v>
+        <v>0.6423985958099365</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>1100101</t>
-        </is>
+      <c r="A96" s="1" t="n">
+        <v>1110201</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2537142038345337</v>
+        <v>0.1846971362829208</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3080498874187469</v>
+        <v>0.2454717457294464</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2861984968185425</v>
+        <v>0.4745312929153442</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1408870369195938</v>
+        <v>0.1047117114067077</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08588641136884689</v>
+        <v>0.200724571943283</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6399958729743958</v>
+        <v>0.2888500988483429</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>1100102</t>
-        </is>
+      <c r="A97" s="1" t="n">
+        <v>1110202</v>
       </c>
       <c r="B97" t="n">
-        <v>0.357095330953598</v>
+        <v>0.2925088405609131</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2935499548912048</v>
+        <v>0.4080261588096618</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2861923575401306</v>
+        <v>0.5020329356193542</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1929101049900055</v>
+        <v>0.1286061406135559</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2155933082103729</v>
+        <v>0.1897979378700256</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5795983076095581</v>
+        <v>0.4219904839992523</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>1100103</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>1110203</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2918316721916199</v>
+        <v>0.3793901205062866</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3651154637336731</v>
+        <v>0.4635851979255676</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2649740874767303</v>
+        <v>0.3249601721763611</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1357126384973526</v>
+        <v>0.2068846225738525</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0898164138197898</v>
+        <v>0.1713711619377136</v>
       </c>
       <c r="G98" t="n">
-        <v>0.561539888381958</v>
+        <v>0.5532963275909424</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>1100104</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>1110204</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1641772985458374</v>
+        <v>0.4023585915565491</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2660480439662933</v>
+        <v>0.4946417510509491</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2763956785202026</v>
+        <v>0.3760280311107635</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07535390555858611</v>
+        <v>0.1876953542232513</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0927991569042205</v>
+        <v>0.134454995393753</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6141324043273926</v>
+        <v>0.4793154895305633</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>1100105</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>1110205</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1484110355377197</v>
+        <v>0.1996984034776687</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3105127215385437</v>
+        <v>0.2845949530601501</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3703042864799499</v>
+        <v>0.4514624774456024</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0714967474341392</v>
+        <v>0.0675238370895385</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0624900721013546</v>
+        <v>0.07715073972940439</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6964750289916992</v>
+        <v>0.4063190221786499</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>1100106</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>1110206</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2511907517910003</v>
+        <v>0.2931171655654907</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2802066802978515</v>
+        <v>0.2357512265443802</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2695062756538391</v>
+        <v>0.2161809206008911</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07630801945924751</v>
+        <v>0.07566046714782711</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0829657837748527</v>
+        <v>0.07807211577892301</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6558271050453186</v>
+        <v>0.8114240169525146</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>1100107</t>
-        </is>
+      <c r="A102" s="1" t="n">
+        <v>1110207</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1857974827289581</v>
+        <v>0.318588525056839</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2893060743808746</v>
+        <v>0.5624904632568359</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1957881450653076</v>
+        <v>0.306700199842453</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0292087960988283</v>
+        <v>0.2896971702575683</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0382388867437839</v>
+        <v>0.1277899444103241</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7056280970573425</v>
+        <v>0.3827844560146332</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>1100108</t>
-        </is>
+      <c r="A103" s="1" t="n">
+        <v>1110208</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1816067099571228</v>
+        <v>0.5173351764678955</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3272059857845306</v>
+        <v>0.4904954135417938</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2812284231185913</v>
+        <v>0.349877655506134</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1177173852920532</v>
+        <v>0.2626139223575592</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0804441273212432</v>
+        <v>0.1767013072967529</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6576212048530579</v>
+        <v>0.5457069873809814</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>1100109</t>
-        </is>
+      <c r="A104" s="1" t="n">
+        <v>1110209</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3194500505924225</v>
+        <v>0.3992856740951538</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3473075032234192</v>
+        <v>0.3909289240837097</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3164716958999634</v>
+        <v>0.5092078447341919</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1420503407716751</v>
+        <v>0.1589468717575073</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1107307001948356</v>
+        <v>0.2053746283054351</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6150714755058289</v>
+        <v>0.468338131904602</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>1100110</t>
-        </is>
+      <c r="A105" s="1" t="n">
+        <v>1110210</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2666159272193908</v>
+        <v>0.2707401216030121</v>
       </c>
       <c r="C105" t="n">
-        <v>0.26480233669281</v>
+        <v>0.4174714088439941</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2570447623729706</v>
+        <v>0.3803794682025909</v>
       </c>
       <c r="E105" t="n">
-        <v>0.113167680799961</v>
+        <v>0.1343277990818023</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1224057376384735</v>
+        <v>0.1398539543151855</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5989434123039246</v>
+        <v>0.5230231881141663</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>1100111</t>
-        </is>
+      <c r="A106" s="1" t="n">
+        <v>1110211</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1930237710475921</v>
+        <v>0.4322132766246795</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2779358923435211</v>
+        <v>0.4257749319076538</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2381595969200134</v>
+        <v>0.3656437695026397</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0705394074320793</v>
+        <v>0.2679197192192077</v>
       </c>
       <c r="F106" t="n">
-        <v>0.09397966414690009</v>
+        <v>0.2325184941291809</v>
       </c>
       <c r="G106" t="n">
-        <v>0.59248948097229</v>
+        <v>0.4379482269287109</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>1100112</t>
-        </is>
+      <c r="A107" s="1" t="n">
+        <v>1110212</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1678822487592697</v>
+        <v>0.3690177798271179</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3137027025222778</v>
+        <v>0.5193133354187012</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2619459331035614</v>
+        <v>0.3801159560680389</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06883767247200009</v>
+        <v>0.2820875346660614</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0521277710795402</v>
+        <v>0.1747727841138839</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7463307976722717</v>
+        <v>0.4799686670303345</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>1100114</t>
-        </is>
+      <c r="A108" s="1" t="n">
+        <v>1110213</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3483774662017822</v>
+        <v>0.4032457768917084</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2922347486019134</v>
+        <v>0.3402625918388366</v>
       </c>
       <c r="D108" t="n">
-        <v>0.177853912115097</v>
+        <v>0.2865394353866577</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1220798939466476</v>
+        <v>0.2801657319068908</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0507155805826187</v>
+        <v>0.2386163920164108</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6718562841415405</v>
+        <v>0.6243841052055359</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>1100115</t>
-        </is>
+      <c r="A109" s="1" t="n">
+        <v>1110214</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2001526951789856</v>
+        <v>0.4027184844017029</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3009440898895263</v>
+        <v>0.1897531449794769</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3156187534332275</v>
+        <v>0.3149609267711639</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7443186044692993</v>
+        <v>0.147001251578331</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7021479606628418</v>
+        <v>0.1758663952350616</v>
       </c>
       <c r="G109" t="n">
-        <v>0.569726288318634</v>
+        <v>0.6170169115066528</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>1100116</t>
-        </is>
+      <c r="A110" s="1" t="n">
+        <v>1110215</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3419871032238006</v>
+        <v>0.4735560417175293</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22635518014431</v>
+        <v>0.4048856496810913</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2620222270488739</v>
+        <v>0.3034321367740631</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1392759680747985</v>
+        <v>0.2937785685062408</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1608115881681442</v>
+        <v>0.216649129986763</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8978708982467651</v>
+        <v>0.6468610167503357</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>1100117</t>
-        </is>
+      <c r="A111" s="1" t="n">
+        <v>1110216</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3169308602809906</v>
+        <v>0.4570168852806091</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2866957187652588</v>
+        <v>0.4320486783981323</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2407230287790298</v>
+        <v>0.3322975933551788</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1416287720203399</v>
+        <v>0.2901671528816223</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1026457250118255</v>
+        <v>0.2161747962236404</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6581536531448364</v>
+        <v>0.5106826424598694</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>1100118</t>
-        </is>
+      <c r="A112" s="1" t="n">
+        <v>1110217</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2702464461326599</v>
+        <v>0.4547566175460815</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2772718667984009</v>
+        <v>0.3308293223381042</v>
       </c>
       <c r="D112" t="n">
-        <v>0.240761861205101</v>
+        <v>0.2853932976722717</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1787264049053192</v>
+        <v>0.2159821987152099</v>
       </c>
       <c r="F112" t="n">
-        <v>0.08128210157155991</v>
+        <v>0.1879864782094955</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7004129886627197</v>
+        <v>0.6126693487167358</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>1100119</t>
-        </is>
+      <c r="A113" s="1" t="n">
+        <v>1110218</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4535179734230041</v>
+        <v>0.4784549474716186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3603740930557251</v>
+        <v>0.3815339803695678</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3502254784107208</v>
+        <v>0.3277548551559448</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1955382823944091</v>
+        <v>0.2720973491668701</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1901514083147049</v>
+        <v>0.2108047008514404</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6423985958099365</v>
+        <v>0.5918715596199036</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>1110201</t>
-        </is>
+      <c r="A114" s="1" t="n">
+        <v>1110219</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1846971362829208</v>
+        <v>0.4524692296981811</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2454717457294464</v>
+        <v>0.2999621629714966</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4745312929153442</v>
+        <v>0.3378336727619171</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1047117114067077</v>
+        <v>0.220125675201416</v>
       </c>
       <c r="F114" t="n">
-        <v>0.200724571943283</v>
+        <v>0.2243483662605285</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2888500988483429</v>
+        <v>0.5727841258049011</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>1110202</t>
-        </is>
+      <c r="A115" s="1" t="n">
+        <v>1110220</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2925088405609131</v>
+        <v>0.5621006488800049</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4080261588096618</v>
+        <v>0.3957886695861816</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5020329356193542</v>
+        <v>0.2084486484527588</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1286061406135559</v>
+        <v>0.3044188916683197</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1897979378700256</v>
+        <v>0.1218964010477066</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4219904839992523</v>
+        <v>0.5755884647369385</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>1110203</t>
-        </is>
+      <c r="A116" s="1" t="n">
+        <v>1110221</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3793901205062866</v>
+        <v>0.5613548159599304</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4635851979255676</v>
+        <v>0.2849358320236206</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3249601721763611</v>
+        <v>0.1657387316226959</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2068846225738525</v>
+        <v>0.2459511160850525</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1713711619377136</v>
+        <v>0.1611426174640655</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5532963275909424</v>
+        <v>0.7853814363479614</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>1110204</t>
-        </is>
+      <c r="A117" s="1" t="n">
+        <v>1110222</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4023585915565491</v>
+        <v>0.4138330817222595</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4946417510509491</v>
+        <v>0.3872111737728119</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3760280311107635</v>
+        <v>0.2968698143959045</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1876953542232513</v>
+        <v>0.2384349405765533</v>
       </c>
       <c r="F117" t="n">
-        <v>0.134454995393753</v>
+        <v>0.1718810945749282</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4793154895305633</v>
+        <v>0.5102759599685669</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>1110205</t>
-        </is>
+      <c r="A118" s="1" t="n">
+        <v>1110223</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1996984034776687</v>
+        <v>0.4420107007026672</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2845949530601501</v>
+        <v>0.3959919214248657</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4514624774456024</v>
+        <v>0.3561521470546722</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0675238370895385</v>
+        <v>0.2959231436252594</v>
       </c>
       <c r="F118" t="n">
-        <v>0.07715073972940439</v>
+        <v>0.2669455111026764</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4063190221786499</v>
+        <v>0.5534417033195496</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>1110206</t>
-        </is>
+      <c r="A119" s="1" t="n">
+        <v>1110224</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2931171655654907</v>
+        <v>0.4459096193313598</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2357512265443802</v>
+        <v>0.3345355987548828</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2161809206008911</v>
+        <v>0.2695664167404175</v>
       </c>
       <c r="E119" t="n">
-        <v>0.07566046714782711</v>
+        <v>0.2126640975475311</v>
       </c>
       <c r="F119" t="n">
-        <v>0.07807211577892301</v>
+        <v>0.1911096423864364</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8114240169525146</v>
+        <v>0.6635982990264893</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>1110207</t>
-        </is>
+      <c r="A120" s="1" t="n">
+        <v>1110225</v>
       </c>
       <c r="B120" t="n">
-        <v>0.318588525056839</v>
+        <v>0.439839631319046</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5624904632568359</v>
+        <v>0.4232603907585144</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306700199842453</v>
+        <v>0.3053671717643738</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2896971702575683</v>
+        <v>0.2698056399822235</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1277899444103241</v>
+        <v>0.2143729031085968</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3827844560146332</v>
+        <v>0.581614077091217</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>1110208</t>
-        </is>
+      <c r="A121" s="1" t="n">
+        <v>1110226</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5173351764678955</v>
+        <v>0.3989744782447815</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4904954135417938</v>
+        <v>0.3666315376758575</v>
       </c>
       <c r="D121" t="n">
-        <v>0.349877655506134</v>
+        <v>0.2412908673286438</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2626139223575592</v>
+        <v>0.302877813577652</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1767013072967529</v>
+        <v>0.1998660713434219</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5457069873809814</v>
+        <v>0.5761577486991882</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>1110209</t>
-        </is>
+      <c r="A122" s="1" t="n">
+        <v>1110227</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3992856740951538</v>
+        <v>0.4237020909786224</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3909289240837097</v>
+        <v>0.2961207032203674</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5092078447341919</v>
+        <v>0.2227686494588852</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1589468717575073</v>
+        <v>0.2169347703456878</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2053746283054351</v>
+        <v>0.1860750764608383</v>
       </c>
       <c r="G122" t="n">
-        <v>0.468338131904602</v>
+        <v>0.7196587324142456</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>1110210</t>
-        </is>
+      <c r="A123" s="1" t="n">
+        <v>1110228</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2707401216030121</v>
+        <v>0.3764339387416839</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4174714088439941</v>
+        <v>0.4304290413856506</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3803794682025909</v>
+        <v>0.3351282477378845</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1343277990818023</v>
+        <v>0.2908212840557098</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1398539543151855</v>
+        <v>0.1930693238973617</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5230231881141663</v>
+        <v>0.6077631115913391</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>1110211</t>
-        </is>
+      <c r="A124" s="1" t="n">
+        <v>1110229</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4322132766246795</v>
+        <v>0.4404126405715942</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4257749319076538</v>
+        <v>0.3871002197265625</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3656437695026397</v>
+        <v>0.357637345790863</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2679197192192077</v>
+        <v>0.2096069157123565</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2325184941291809</v>
+        <v>0.2062223553657531</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4379482269287109</v>
+        <v>0.6242821216583252</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>1110212</t>
-        </is>
+      <c r="A125" s="1" t="n">
+        <v>1110230</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3690177798271179</v>
+        <v>0.5037065744400024</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5193133354187012</v>
+        <v>0.440234363079071</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3801159560680389</v>
+        <v>0.3146395683288574</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2820875346660614</v>
+        <v>0.3122287094593048</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1747727841138839</v>
+        <v>0.1866417527198791</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4799686670303345</v>
+        <v>0.4909156262874603</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>1110213</t>
-        </is>
+      <c r="A126" s="1" t="n">
+        <v>1110301</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4032457768917084</v>
+        <v>0.5468353629112244</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3402625918388366</v>
+        <v>0.09745918959379191</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2865394353866577</v>
+        <v>0.0974592044949531</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2801657319068908</v>
+        <v>0.07929804921150201</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2386163920164108</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.6243841052055359</v>
-      </c>
+        <v>0.0792980715632438</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>1110214</t>
-        </is>
+      <c r="A127" s="1" t="n">
+        <v>1110302</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4027184844017029</v>
+        <v>0.3628256320953369</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1897531449794769</v>
+        <v>0.169900432229042</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3149609267711639</v>
+        <v>0.1699004471302032</v>
       </c>
       <c r="E127" t="n">
-        <v>0.147001251578331</v>
+        <v>0.09231143444776529</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1758663952350616</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.6170169115066528</v>
-      </c>
+        <v>0.0923114195466041</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>1110215</t>
-        </is>
+      <c r="A128" s="1" t="n">
+        <v>1110303</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4735560417175293</v>
+        <v>0.2412491589784622</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4048856496810913</v>
+        <v>0.2107021957635879</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3034321367740631</v>
+        <v>0.2107022553682327</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2937785685062408</v>
+        <v>0.113737091422081</v>
       </c>
       <c r="F128" t="n">
-        <v>0.216649129986763</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.6468610167503357</v>
-      </c>
+        <v>0.1137371063232421</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>1110216</t>
-        </is>
+      <c r="A129" s="1" t="n">
+        <v>1110304</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4570168852806091</v>
+        <v>0.2128013223409652</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4320486783981323</v>
+        <v>0.2190503925085067</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3322975933551788</v>
+        <v>0.2190503925085067</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2901671528816223</v>
+        <v>0.0961048305034637</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2161747962236404</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.5106826424598694</v>
-      </c>
+        <v>0.0961048305034637</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>1110217</t>
-        </is>
+      <c r="A130" s="1" t="n">
+        <v>1110305</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4547566175460815</v>
+        <v>0.4370643496513366</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3308293223381042</v>
+        <v>0.1913228183984756</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2853932976722717</v>
+        <v>0.191322848200798</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2159821987152099</v>
+        <v>0.07015179842710489</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1879864782094955</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.6126693487167358</v>
-      </c>
+        <v>0.07015180587768551</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>1110218</t>
-        </is>
+      <c r="A131" s="1" t="n">
+        <v>1110306</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4784549474716186</v>
+        <v>0.3872080147266388</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3815339803695678</v>
+        <v>0.249241217970848</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3277548551559448</v>
+        <v>0.249241217970848</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2720973491668701</v>
+        <v>0.1280081123113632</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2108047008514404</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.5918715596199036</v>
-      </c>
+        <v>0.1280080825090408</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>1110219</t>
-        </is>
+      <c r="A132" s="1" t="n">
+        <v>1110307</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4524692296981811</v>
+        <v>0.367902398109436</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2999621629714966</v>
+        <v>0.2010299861431121</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3378336727619171</v>
+        <v>0.2010299563407898</v>
       </c>
       <c r="E132" t="n">
-        <v>0.220125675201416</v>
+        <v>0.1215355470776557</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2243483662605285</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.5727841258049011</v>
-      </c>
+        <v>0.1215355768799781</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>1110220</t>
-        </is>
+      <c r="A133" s="1" t="n">
+        <v>1110308</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5621006488800049</v>
+        <v>0.3362305760383606</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3957886695861816</v>
+        <v>0.1544350385665893</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2084486484527588</v>
+        <v>0.1544350832700729</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3044188916683197</v>
+        <v>0.06585296988487239</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1218964010477066</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.5755884647369385</v>
-      </c>
+        <v>0.06585296988487239</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>1110221</t>
-        </is>
+      <c r="A134" s="1" t="n">
+        <v>1110309</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5613548159599304</v>
+        <v>0.2378277331590652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2849358320236206</v>
+        <v>0.2179967314004898</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1657387316226959</v>
+        <v>0.2179967761039734</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2459511160850525</v>
+        <v>0.0945805162191391</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1611426174640655</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.7853814363479614</v>
-      </c>
+        <v>0.0945805236697197</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>1110222</t>
-        </is>
+      <c r="A135" s="1" t="n">
+        <v>1110310</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4138330817222595</v>
+        <v>0.4955455958843231</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3872111737728119</v>
+        <v>0.2012314647436142</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2968698143959045</v>
+        <v>0.2012314647436142</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2384349405765533</v>
+        <v>0.0966352894902229</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1718810945749282</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.5102759599685669</v>
-      </c>
+        <v>0.0966352969408035</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>1110223</t>
-        </is>
+      <c r="A136" s="1" t="n">
+        <v>1110311</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4420107007026672</v>
+        <v>0.3300950527191162</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3959919214248657</v>
+        <v>0.2558775246143341</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3561521470546722</v>
+        <v>0.2558775246143341</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2959231436252594</v>
+        <v>0.1101604178547859</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2669455111026764</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.5534417033195496</v>
-      </c>
+        <v>0.1101604178547859</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>1110224</t>
-        </is>
+      <c r="A137" s="1" t="n">
+        <v>1110312</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4459096193313598</v>
+        <v>0.3794788122177124</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3345355987548828</v>
+        <v>0.1974203735589981</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2695664167404175</v>
+        <v>0.1974203735589981</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2126640975475311</v>
+        <v>0.1042329147458076</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1911096423864364</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.6635982990264893</v>
-      </c>
+        <v>0.1042329370975494</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>1110225</t>
-        </is>
+      <c r="A138" s="1" t="n">
+        <v>1110313</v>
       </c>
       <c r="B138" t="n">
-        <v>0.439839631319046</v>
+        <v>0.2089838981628418</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4232603907585144</v>
+        <v>0.2256554663181305</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3053671717643738</v>
+        <v>0.2256554812192917</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2698056399822235</v>
+        <v>0.0506044328212738</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2143729031085968</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.581614077091217</v>
-      </c>
+        <v>0.0506044290959835</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>1110226</t>
-        </is>
+      <c r="A139" s="1" t="n">
+        <v>1110314</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3989744782447815</v>
+        <v>0.3327596783638</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3666315376758575</v>
+        <v>0.1712451130151748</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2412908673286438</v>
+        <v>0.1712451130151748</v>
       </c>
       <c r="E139" t="n">
-        <v>0.302877813577652</v>
+        <v>0.0630329474806785</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1998660713434219</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.5761577486991882</v>
-      </c>
+        <v>0.0630329474806785</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>1110227</t>
-        </is>
+      <c r="A140" s="1" t="n">
+        <v>1110315</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4237020909786224</v>
+        <v>0.405918538570404</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2961207032203674</v>
+        <v>0.1464067250490188</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2227686494588852</v>
+        <v>0.1464067846536636</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2169347703456878</v>
+        <v>0.0801088213920593</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1860750764608383</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.7196587324142456</v>
-      </c>
+        <v>0.0801088288426399</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>1110228</t>
-        </is>
+      <c r="A141" s="1" t="n">
+        <v>1110316</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3764339387416839</v>
+        <v>0.2036240994930267</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4304290413856506</v>
+        <v>0.199515089392662</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3351282477378845</v>
+        <v>0.199515089392662</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2908212840557098</v>
+        <v>0.09169095009565351</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1930693238973617</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.6077631115913391</v>
-      </c>
+        <v>0.0916909351944923</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>1110229</t>
-        </is>
+      <c r="A142" s="1" t="n">
+        <v>1110317</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4404126405715942</v>
+        <v>0.4136883616447449</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3871002197265625</v>
+        <v>0.2399630397558212</v>
       </c>
       <c r="D142" t="n">
-        <v>0.357637345790863</v>
+        <v>0.2399630546569824</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2096069157123565</v>
+        <v>0.1222158521413803</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2062223553657531</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.6242821216583252</v>
-      </c>
+        <v>0.1222158521413803</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>1110230</t>
-        </is>
+      <c r="A143" s="1" t="n">
+        <v>1110318</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5037065744400024</v>
+        <v>0.3178249895572662</v>
       </c>
       <c r="C143" t="n">
-        <v>0.440234363079071</v>
+        <v>0.1612210124731063</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3146395683288574</v>
+        <v>0.1612210273742675</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3122287094593048</v>
+        <v>0.0864231511950492</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1866417527198791</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.4909156262874603</v>
-      </c>
+        <v>0.08642314374446861</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>1110301</t>
-        </is>
+      <c r="A144" s="1" t="n">
+        <v>1110319</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5468353629112244</v>
+        <v>0.4617342948913574</v>
       </c>
       <c r="C144" t="n">
-        <v>0.09745918959379191</v>
+        <v>0.2466594874858856</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0974592044949531</v>
+        <v>0.2466594874858856</v>
       </c>
       <c r="E144" t="n">
-        <v>0.07929804921150201</v>
+        <v>0.1335099190473556</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0792980715632438</v>
+        <v>0.1335099339485168</v>
       </c>
       <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>1110302</t>
-        </is>
+      <c r="A145" s="1" t="n">
+        <v>1110320</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3628256320953369</v>
+        <v>0.3442452549934387</v>
       </c>
       <c r="C145" t="n">
-        <v>0.169900432229042</v>
+        <v>0.2144215404987335</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1699004471302032</v>
+        <v>0.2144215703010559</v>
       </c>
       <c r="E145" t="n">
-        <v>0.09231143444776529</v>
+        <v>0.1325661987066269</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0923114195466041</v>
+        <v>0.1325661838054657</v>
       </c>
       <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>1110303</t>
-        </is>
+      <c r="A146" s="1" t="n">
+        <v>1110321</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2412491589784622</v>
+        <v>0.3742499947547912</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2107021957635879</v>
+        <v>0.1702890247106552</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2107022553682327</v>
+        <v>0.1702890396118164</v>
       </c>
       <c r="E146" t="n">
-        <v>0.113737091422081</v>
+        <v>0.09706211090087891</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1137371063232421</v>
+        <v>0.09706214070320129</v>
       </c>
       <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>1110304</t>
-        </is>
+      <c r="A147" s="1" t="n">
+        <v>1110322</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2128013223409652</v>
+        <v>0.3059677481651306</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2190503925085067</v>
+        <v>0.2395749241113662</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2190503925085067</v>
+        <v>0.239574983716011</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0961048305034637</v>
+        <v>0.1276244074106216</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0961048305034637</v>
+        <v>0.127624437212944</v>
       </c>
       <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>1110305</t>
-        </is>
+      <c r="A148" s="1" t="n">
+        <v>1110323</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4370643496513366</v>
+        <v>0.3951269090175628</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1913228183984756</v>
+        <v>0.1690859943628311</v>
       </c>
       <c r="D148" t="n">
-        <v>0.191322848200798</v>
+        <v>0.1690860390663147</v>
       </c>
       <c r="E148" t="n">
-        <v>0.07015179842710489</v>
+        <v>0.1130757257342338</v>
       </c>
       <c r="F148" t="n">
-        <v>0.07015180587768551</v>
+        <v>0.1130757480859756</v>
       </c>
       <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>1110306</t>
-        </is>
+      <c r="A149" s="1" t="n">
+        <v>1110324</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3872080147266388</v>
+        <v>0.4912837147712707</v>
       </c>
       <c r="C149" t="n">
-        <v>0.249241217970848</v>
+        <v>0.121151678264141</v>
       </c>
       <c r="D149" t="n">
-        <v>0.249241217970848</v>
+        <v>0.1211516857147216</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1280081123113632</v>
+        <v>0.1256113052368164</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1280080825090408</v>
+        <v>0.1256112903356552</v>
       </c>
       <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>1110307</t>
-        </is>
+      <c r="A150" s="1" t="n">
+        <v>1110325</v>
       </c>
       <c r="B150" t="n">
-        <v>0.367902398109436</v>
+        <v>0.4942008256912231</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2010299861431121</v>
+        <v>0.2344305366277694</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2010299563407898</v>
+        <v>0.2344305515289306</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1215355470776557</v>
+        <v>0.1090175658464431</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1215355768799781</v>
+        <v>0.1090175509452819</v>
       </c>
       <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>1110308</t>
-        </is>
+      <c r="A151" s="1" t="n">
+        <v>1110326</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3362305760383606</v>
+        <v>0.2792378664016723</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1544350385665893</v>
+        <v>0.2121223509311676</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1544350832700729</v>
+        <v>0.21212238073349</v>
       </c>
       <c r="E151" t="n">
-        <v>0.06585296988487239</v>
+        <v>0.0364235006272792</v>
       </c>
       <c r="F151" t="n">
-        <v>0.06585296988487239</v>
+        <v>0.0364234931766986</v>
       </c>
       <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>1110309</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.2378277331590652</v>
-      </c>
+      <c r="A152" s="1" t="n">
+        <v>1070117</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>0.2179967314004898</v>
+        <v>0.6222530007362366</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2179967761039734</v>
+        <v>0.6876916885375977</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0945805162191391</v>
+        <v>0.6222530007362366</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0945805236697197</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
+        <v>0.6876916885375977</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.4983876645565033</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>1110310</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.4955455958843231</v>
-      </c>
+      <c r="A153" s="1" t="n">
+        <v>1080426</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>0.2012314647436142</v>
+        <v>0.6080712080001831</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2012314647436142</v>
+        <v>0.6818463802337646</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0966352894902229</v>
+        <v>0.6080712080001831</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0966352969408035</v>
-      </c>
-      <c r="G153" t="inlineStr"/>
+        <v>0.6818463802337646</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.5185874104499817</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>1110311</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.3300950527191162</v>
-      </c>
+      <c r="A154" s="1" t="n">
+        <v>1110133</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>0.2558775246143341</v>
+        <v>0.7082082629203796</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2558775246143341</v>
+        <v>0.9151287078857422</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1101604178547859</v>
+        <v>0.7082082629203796</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1101604178547859</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+        <v>0.9151287078857422</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.657076358795166</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>1110312</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.3794788122177124</v>
-      </c>
+      <c r="A155" s="1" t="n">
+        <v>1110134</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>0.1974203735589981</v>
+        <v>0.5213400721549988</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1974203735589981</v>
+        <v>0.6915019750595093</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1042329147458076</v>
+        <v>0.5213400721549988</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1042329370975494</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
+        <v>0.6915019750595093</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.5040379166603088</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>1110313</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.2089838981628418</v>
-      </c>
+      <c r="A156" s="1" t="n">
+        <v>1110135</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>0.2256554663181305</v>
+        <v>0.5243166089057922</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2256554812192917</v>
+        <v>0.8305261135101318</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0506044328212738</v>
+        <v>0.5243166089057922</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0506044290959835</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
+        <v>0.8305261135101318</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.5098334550857544</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>1110314</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.3327596783638</v>
-      </c>
+      <c r="A157" s="1" t="n">
+        <v>1110136</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>0.1712451130151748</v>
+        <v>0.5135661363601685</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1712451130151748</v>
+        <v>0.8739817142486572</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0630329474806785</v>
+        <v>0.5135661363601685</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0630329474806785</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
+        <v>0.8739817142486572</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.4999381601810455</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>1110315</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.405918538570404</v>
-      </c>
+      <c r="A158" s="1" t="n">
+        <v>1110137</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>0.1464067250490188</v>
+        <v>0.5411107540130615</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1464067846536636</v>
+        <v>0.9586041569709778</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0801088213920593</v>
+        <v>0.5411107540130615</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0801088288426399</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
+        <v>0.9586041569709778</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.5348469018936157</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>1110316</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.2036240994930267</v>
-      </c>
+      <c r="A159" s="1" t="n">
+        <v>1110138</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>0.199515089392662</v>
+        <v>0.6154698133468628</v>
       </c>
       <c r="D159" t="n">
-        <v>0.199515089392662</v>
+        <v>0.3996233940124511</v>
       </c>
       <c r="E159" t="n">
-        <v>0.09169095009565351</v>
+        <v>0.6154698133468628</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0916909351944923</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+        <v>0.3996233940124511</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.4048024415969848</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>1110317</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.4136883616447449</v>
-      </c>
+      <c r="A160" s="1" t="n">
+        <v>1110139</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>0.2399630397558212</v>
+        <v>0.3680783212184906</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2399630546569824</v>
+        <v>0.6056840419769287</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1222158521413803</v>
+        <v>0.3680783212184906</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1222158521413803</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
+        <v>0.6056840419769287</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.4599312245845794</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>1110318</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.3178249895572662</v>
-      </c>
+      <c r="A161" s="1" t="n">
+        <v>1110140</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>0.1612210124731063</v>
+        <v>0.7841116189956665</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1612210273742675</v>
+        <v>0.6712412238121033</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0864231511950492</v>
+        <v>0.7841116189956665</v>
       </c>
       <c r="F161" t="n">
-        <v>0.08642314374446861</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+        <v>0.6712412238121033</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5853686928749084</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>1110319</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.4617342948913574</v>
-      </c>
+      <c r="A162" s="1" t="n">
+        <v>1110141</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>0.2466594874858856</v>
+        <v>0.7203613519668579</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2466594874858856</v>
+        <v>0.6439765095710754</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1335099190473556</v>
+        <v>0.7203613519668579</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1335099339485168</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
+        <v>0.6439765095710754</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.5421042442321777</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>1110320</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0.3442452549934387</v>
-      </c>
+      <c r="A163" s="1" t="n">
+        <v>1110142</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>0.2144215404987335</v>
+        <v>0.7864327430725098</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2144215703010559</v>
+        <v>0.6876884698867798</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1325661987066269</v>
+        <v>0.7864327430725098</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1325661838054657</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
+        <v>0.6876884698867798</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.5966616868972778</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>1110321</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0.3742499947547912</v>
-      </c>
+      <c r="A164" s="1" t="n">
+        <v>1110143</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>0.1702890247106552</v>
+        <v>0.60749351978302</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1702890396118164</v>
+        <v>0.8292004466056824</v>
       </c>
       <c r="E164" t="n">
-        <v>0.09706211090087891</v>
+        <v>0.60749351978302</v>
       </c>
       <c r="F164" t="n">
-        <v>0.09706214070320129</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+        <v>0.8292004466056824</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.5402320027351379</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>1110322</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0.3059677481651306</v>
-      </c>
+      <c r="A165" s="1" t="n">
+        <v>1110144</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>0.2395749241113662</v>
+        <v>0.5853643417358398</v>
       </c>
       <c r="D165" t="n">
-        <v>0.239574983716011</v>
+        <v>0.7014438509941101</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1276244074106216</v>
+        <v>0.5853643417358398</v>
       </c>
       <c r="F165" t="n">
-        <v>0.127624437212944</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
+        <v>0.7014438509941101</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.4906069338321686</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>1110323</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0.3951269090175628</v>
-      </c>
+      <c r="A166" s="1" t="n">
+        <v>1110145</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>0.1690859943628311</v>
+        <v>0.8119575977325439</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1690860390663147</v>
+        <v>0.7694428563117981</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1130757257342338</v>
+        <v>0.8119575977325439</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1130757480859756</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
+        <v>0.7694428563117981</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.6665303707122803</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>1110324</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0.4912837147712707</v>
-      </c>
+      <c r="A167" s="1" t="n">
+        <v>1110146</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>0.121151678264141</v>
+        <v>0.7088253498077393</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1211516857147216</v>
+        <v>0.6211742758750916</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1256113052368164</v>
+        <v>0.7088253498077393</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1256112903356552</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
+        <v>0.6211742758750916</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.5313318967819214</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>1110325</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.4942008256912231</v>
-      </c>
+      <c r="A168" s="1" t="n">
+        <v>1110147</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>0.2344305366277694</v>
+        <v>0.594709575176239</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2344305515289306</v>
+        <v>0.7993988394737244</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1090175658464431</v>
+        <v>0.594709575176239</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1090175509452819</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
+        <v>0.7993988394737244</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.5337483882904053</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>1110326</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0.2792378664016723</v>
-      </c>
+      <c r="A169" s="1" t="n">
+        <v>1110148</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>0.2121223509311676</v>
+        <v>0.7273228168487549</v>
       </c>
       <c r="D169" t="n">
-        <v>0.21212238073349</v>
+        <v>0.7906225323677063</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0364235006272792</v>
+        <v>0.7273228168487549</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0364234931766986</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+        <v>0.7906225323677063</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.6193615794181824</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>1070117</t>
-        </is>
+      <c r="A170" s="1" t="n">
+        <v>1110149</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>0.6222530007362366</v>
+        <v>0.7197834253311157</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6876916885375977</v>
+        <v>0.9379156827926636</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6222530007362366</v>
+        <v>0.7197834253311157</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6876916885375977</v>
+        <v>0.9379156827926636</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4983876645565033</v>
+        <v>0.6863494515419006</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>1080426</t>
-        </is>
+      <c r="A171" s="1" t="n">
+        <v>1110150</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>0.6080712080001831</v>
+        <v>0.5196009874343872</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6818463802337646</v>
+        <v>0.9807109832763672</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6080712080001831</v>
+        <v>0.5196009874343872</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6818463802337646</v>
+        <v>0.9807109832763672</v>
       </c>
       <c r="G171" t="n">
-        <v>0.5185874104499817</v>
+        <v>0.5156605243682861</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>1110133</t>
-        </is>
+      <c r="A172" s="1" t="n">
+        <v>1110151</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>0.7082082629203796</v>
+        <v>0.5216869115829468</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9151287078857422</v>
+        <v>0.6291015148162842</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7082082629203796</v>
+        <v>0.5216869115829468</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9151287078857422</v>
+        <v>0.6291015148162842</v>
       </c>
       <c r="G172" t="n">
-        <v>0.657076358795166</v>
+        <v>0.4867518842220306</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>1110134</t>
-        </is>
+      <c r="A173" s="1" t="n">
+        <v>1110152</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>0.5213400721549988</v>
+        <v>0.6141289472579956</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6915019750595093</v>
+        <v>0.7225860357284546</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5213400721549988</v>
+        <v>0.6141289472579956</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6915019750595093</v>
+        <v>0.7225860357284546</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5040379166603088</v>
+        <v>0.5394899845123291</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>1110135</t>
-        </is>
+      <c r="A174" s="1" t="n">
+        <v>1110153</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>0.5243166089057922</v>
+        <v>0.6273456811904907</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8305261135101318</v>
+        <v>0.8558399677276611</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5243166089057922</v>
+        <v>0.6273456811904907</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8305261135101318</v>
+        <v>0.8558399677276611</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5098334550857544</v>
+        <v>0.5873221158981323</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>1110136</t>
-        </is>
+      <c r="A175" s="1" t="n">
+        <v>1110154</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>0.5135661363601685</v>
+        <v>0.7685730457305908</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8739817142486572</v>
+        <v>0.8475601673126221</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5135661363601685</v>
+        <v>0.7685730457305908</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8739817142486572</v>
+        <v>0.8475601673126221</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4999381601810455</v>
+        <v>0.6734112501144409</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>1110137</t>
-        </is>
+      <c r="A176" s="1" t="n">
+        <v>1110156</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>0.5411107540130615</v>
+        <v>0.6550758481025696</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9586041569709778</v>
+        <v>0.5850741267204285</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5411107540130615</v>
+        <v>0.6550758481025696</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9586041569709778</v>
+        <v>0.5850741267204285</v>
       </c>
       <c r="G176" t="n">
-        <v>0.5348469018936157</v>
+        <v>0.508511483669281</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>1110138</t>
-        </is>
+      <c r="A177" s="1" t="n">
+        <v>1110158</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>0.6154698133468628</v>
+        <v>0.8065946698188782</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3996233940124511</v>
+        <v>0.4430364668369293</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6154698133468628</v>
+        <v>0.8065946698188782</v>
       </c>
       <c r="F177" t="n">
-        <v>0.3996233940124511</v>
+        <v>0.4430364668369293</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4048024415969848</v>
+        <v>0.4362350702285766</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>1110139</t>
-        </is>
+      <c r="A178" s="1" t="n">
+        <v>1110159</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>0.3680783212184906</v>
+        <v>0.7878098487854004</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6056840419769287</v>
+        <v>0.9170928597450256</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3680783212184906</v>
+        <v>0.7878098487854004</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6056840419769287</v>
+        <v>0.9170928597450256</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4599312245845794</v>
+        <v>0.7316881418228149</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>1110140</t>
-        </is>
+      <c r="A179" s="1" t="n">
+        <v>1110160</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>0.7841116189956665</v>
+        <v>0.8231148719787598</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6712412238121033</v>
+        <v>0.9113890528678894</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7841116189956665</v>
+        <v>0.8231148719787598</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6712412238121033</v>
+        <v>0.9113890528678894</v>
       </c>
       <c r="G179" t="n">
-        <v>0.5853686928749084</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>1110141</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
-        <v>0.7203613519668579</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.6439765095710754</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.7203613519668579</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.6439765095710754</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.5421042442321777</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>1110142</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
-        <v>0.7864327430725098</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.6876884698867798</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.7864327430725098</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.6876884698867798</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.5966616868972778</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>1110143</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
-        <v>0.60749351978302</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.8292004466056824</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.60749351978302</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.8292004466056824</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.5402320027351379</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>1110144</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>0.5853643417358398</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.7014438509941101</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.5853643417358398</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.7014438509941101</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.4906069338321686</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>1110145</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
-        <v>0.8119575977325439</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.7694428563117981</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.8119575977325439</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.7694428563117981</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.6665303707122803</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>1110146</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
-        <v>0.7088253498077393</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.6211742758750916</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.7088253498077393</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.6211742758750916</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.5313318967819214</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>1110147</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
-        <v>0.594709575176239</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.7993988394737244</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.594709575176239</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.7993988394737244</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.5337483882904053</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>1110148</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
-        <v>0.7273228168487549</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.7906225323677063</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.7273228168487549</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.7906225323677063</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.6193615794181824</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>1110149</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
-        <v>0.7197834253311157</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.9379156827926636</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.7197834253311157</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.9379156827926636</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.6863494515419006</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>1110150</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="n">
-        <v>0.5196009874343872</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.9807109832763672</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.5196009874343872</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.9807109832763672</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.5156605243682861</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>1110151</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
-        <v>0.5216869115829468</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.6291015148162842</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.5216869115829468</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.6291015148162842</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.4867518842220306</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>1110152</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="n">
-        <v>0.6141289472579956</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.7225860357284546</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.6141289472579956</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.7225860357284546</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.5394899845123291</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>1110153</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="n">
-        <v>0.6273456811904907</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.8558399677276611</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.6273456811904907</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.8558399677276611</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.5873221158981323</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>1110154</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="n">
-        <v>0.7685730457305908</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.8475601673126221</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.7685730457305908</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.8475601673126221</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.6734112501144409</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>1110156</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
-        <v>0.6550758481025696</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.5850741267204285</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.6550758481025696</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.5850741267204285</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.508511483669281</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>1110158</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
-        <v>0.8065946698188782</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.4430364668369293</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.8065946698188782</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.4430364668369293</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.4362350702285766</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>1110159</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="n">
-        <v>0.7878098487854004</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.9170928597450256</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.7878098487854004</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.9170928597450256</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.7316881418228149</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>1110160</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
-        <v>0.8231148719787598</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.9113890528678894</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.8231148719787598</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.9113890528678894</v>
-      </c>
-      <c r="G197" t="n">
         <v>0.7640824317932129</v>
       </c>
     </row>
